--- a/capacitors.xlsx
+++ b/capacitors.xlsx
@@ -8,35 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\zenith-supersport-286\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B1CF04-86C2-47F4-890B-F571A63B180D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8691913-8B60-4999-8A93-567DA51964C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{B8FA0924-8316-4F93-B5A9-6755E4CBE0AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Supply" sheetId="1" r:id="rId1"/>
     <sheet name="Motherboard" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>C301</t>
   </si>
@@ -219,6 +209,45 @@
   </si>
   <si>
     <t>Not a cap</t>
+  </si>
+  <si>
+    <t>Diameter (mm)</t>
+  </si>
+  <si>
+    <t>Alum</t>
+  </si>
+  <si>
+    <t>1189-2238-ND</t>
+  </si>
+  <si>
+    <t>1189-1902-ND</t>
+  </si>
+  <si>
+    <t>732-8823-1-ND</t>
+  </si>
+  <si>
+    <t>732-8664-1-ND</t>
+  </si>
+  <si>
+    <t>732-8702-1-ND</t>
+  </si>
+  <si>
+    <t>732-8829-1-ND</t>
+  </si>
+  <si>
+    <t>732-8699-1-ND</t>
+  </si>
+  <si>
+    <t>399-ESC228M010AL3AA-ND</t>
+  </si>
+  <si>
+    <t>732-8993-1-ND</t>
+  </si>
+  <si>
+    <t>DigiKey Replacement</t>
+  </si>
+  <si>
+    <t>Height Max (mm)</t>
   </si>
 </sst>
 </file>
@@ -260,8 +289,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,134 +610,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F3D2E2-7533-4F63-A534-2333CF5085EA}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C3" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C4" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C5" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C6" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C8" s="2">
+        <v>6.49</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C9" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C11" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C12" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C13" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C14" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -713,16 +905,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB29CBAA-ADD0-48EE-841F-8531F39B746E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/capacitors.xlsx
+++ b/capacitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\zenith-supersport-286\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8691913-8B60-4999-8A93-567DA51964C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2297C93-42C4-4E4C-9A00-DAB9AB94268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>C301</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Diameter (mm)</t>
   </si>
   <si>
-    <t>Alum</t>
-  </si>
-  <si>
     <t>1189-2238-ND</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>732-8829-1-ND</t>
   </si>
   <si>
-    <t>732-8699-1-ND</t>
-  </si>
-  <si>
     <t>399-ESC228M010AL3AA-ND</t>
   </si>
   <si>
@@ -248,6 +242,39 @@
   </si>
   <si>
     <t>Height Max (mm)</t>
+  </si>
+  <si>
+    <t>493-14225-ND</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Aluminum Electrolytic</t>
+  </si>
+  <si>
+    <t>Aluminum Polymer</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>Capacitor Type</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>2KV 470pF</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Film</t>
   </si>
 </sst>
 </file>
@@ -611,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,12 +650,13 @@
     <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -639,16 +667,19 @@
         <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,13 +693,16 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -682,13 +716,16 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -702,13 +739,16 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -722,13 +762,16 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -742,13 +785,16 @@
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -762,13 +808,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -782,13 +831,13 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -802,18 +851,36 @@
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -827,13 +894,16 @@
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -847,13 +917,16 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -867,13 +940,16 @@
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -887,15 +963,33 @@
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/capacitors.xlsx
+++ b/capacitors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\zenith-supersport-286\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2297C93-42C4-4E4C-9A00-DAB9AB94268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37335D3C-3CCF-4C96-B161-73831882D5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Supply" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
   <si>
     <t>C301</t>
   </si>
@@ -73,9 +73,6 @@
     <t>C313</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>16V 100uF</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>10V 33uF</t>
   </si>
   <si>
-    <t>Near CN19</t>
-  </si>
-  <si>
     <t>10V 10uF</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>C21</t>
   </si>
   <si>
-    <t>C22</t>
-  </si>
-  <si>
     <t>C23</t>
   </si>
   <si>
@@ -247,18 +238,12 @@
     <t>493-14225-ND</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Aluminum Electrolytic</t>
   </si>
   <si>
     <t>Aluminum Polymer</t>
   </si>
   <si>
-    <t>Replace</t>
-  </si>
-  <si>
     <t>Capacitor Type</t>
   </si>
   <si>
@@ -275,6 +260,36 @@
   </si>
   <si>
     <t>Film</t>
+  </si>
+  <si>
+    <t>C22 (Near CN19)</t>
+  </si>
+  <si>
+    <t>Specs "A"</t>
+  </si>
+  <si>
+    <t>Specs "C"</t>
+  </si>
+  <si>
+    <t>P15778CT-ND</t>
+  </si>
+  <si>
+    <t>P15794CT-ND</t>
+  </si>
+  <si>
+    <t>399-ESK475M016AC3AA-ND</t>
+  </si>
+  <si>
+    <t>P1174-ND</t>
+  </si>
+  <si>
+    <t>732-8655-1-ND</t>
+  </si>
+  <si>
+    <t>493-14256-ND</t>
+  </si>
+  <si>
+    <t>P958-ND</t>
   </si>
 </sst>
 </file>
@@ -316,13 +331,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,11 +670,10 @@
     <col min="4" max="4" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -664,27 +681,24 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -693,21 +707,18 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>12.7</v>
@@ -716,21 +727,18 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>5.25</v>
@@ -739,21 +747,18 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>6.4</v>
@@ -762,21 +767,18 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>5.3</v>
@@ -785,21 +787,18 @@
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>8.0500000000000007</v>
@@ -808,21 +807,18 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>6.49</v>
@@ -831,18 +827,18 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>12.7</v>
@@ -851,41 +847,38 @@
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1">
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>12.7</v>
@@ -894,21 +887,18 @@
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>6.5</v>
@@ -917,21 +907,18 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
         <v>5.3</v>
@@ -940,21 +927,18 @@
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>6.5</v>
@@ -963,33 +947,30 @@
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1">
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1000,231 +981,424 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/capacitors.xlsx
+++ b/capacitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\zenith-supersport-286\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37335D3C-3CCF-4C96-B161-73831882D5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6936CB-B1AD-46A7-B248-68A7AA0F2AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,20 @@
     <sheet name="Power Supply" sheetId="1" r:id="rId1"/>
     <sheet name="Motherboard" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -331,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -342,6 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,10 +992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,9 +1005,11 @@
     <col min="4" max="4" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="E2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1046,8 +1065,11 @@
       <c r="E3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1063,8 +1085,11 @@
       <c r="E4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1074,8 +1099,11 @@
       <c r="C5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1091,8 +1119,11 @@
       <c r="E6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1108,8 +1139,11 @@
       <c r="E7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1119,8 +1153,11 @@
       <c r="C8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1136,8 +1173,11 @@
       <c r="E9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1147,8 +1187,11 @@
       <c r="C10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1164,8 +1207,11 @@
       <c r="E11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1182,7 +1228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1199,7 +1245,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1216,7 +1262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1233,7 +1279,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
